--- a/Datos/Requerimiento3/precision_nuevas_palabras.xlsx
+++ b/Datos/Requerimiento3/precision_nuevas_palabras.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2350</v>
+        <v>2355</v>
       </c>
       <c r="C2" t="n">
-        <v>0.57</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2036</v>
+        <v>2041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.58</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>1477</v>
       </c>
       <c r="C5" t="n">
-        <v>0.67</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>1219</v>
       </c>
       <c r="C6" t="n">
-        <v>0.31</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>870</v>
       </c>
       <c r="C7" t="n">
-        <v>0.26</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="8">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C9" t="n">
         <v>0.25</v>
@@ -564,7 +564,7 @@
         <v>739</v>
       </c>
       <c r="C10" t="n">
-        <v>0.31</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>729</v>
       </c>
       <c r="C11" t="n">
-        <v>0.55</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>722</v>
       </c>
       <c r="C12" t="n">
-        <v>0.38</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>722</v>
       </c>
       <c r="C13" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>710</v>
       </c>
       <c r="C15" t="n">
-        <v>0.33</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="16">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C16" t="n">
         <v>0.6</v>
